--- a/StructureDefinition-profile-MedicationKnowledge.xlsx
+++ b/StructureDefinition-profile-MedicationKnowledge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.848909-06:00</t>
+    <t>2026-02-20T11:59:20.8722788-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationKnowledge|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationKnowledge</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>intendedJurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.intendedJurisdiction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.intendedJurisdiction}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>storageGuideline</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline}
 </t>
   </si>
   <si>
@@ -483,6 +483,47 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationKnowledge.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationKnowledge.author` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-identifier}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationKnowledge.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
+Element `MedicationKnowledge.identifier` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.modifierExtension</t>
@@ -699,7 +740,7 @@
     <t>relatedMedicationKnowledge</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.relatedMedicationKnowledge|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.relatedMedicationKnowledge}
 </t>
   </si>
   <si>
@@ -794,7 +835,7 @@
     <t>monograph</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.monograph|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.monograph}
 </t>
   </si>
   <si>
@@ -954,7 +995,7 @@
     <t>cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.cost|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.cost}
 </t>
   </si>
   <si>
@@ -1017,7 +1058,7 @@
     <t>monitoringProgram</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.monitoringProgram|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.monitoringProgram}
 </t>
   </si>
   <si>
@@ -1069,7 +1110,7 @@
     <t>indicationGuideline</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.indicationGuideline|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.indicationGuideline}
 </t>
   </si>
   <si>
@@ -1193,7 +1234,7 @@
     <t>medicineClassification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.medicineClassification|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.medicineClassification}
 </t>
   </si>
   <si>
@@ -1245,7 +1286,7 @@
     <t>packaging</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.packaging|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.packaging}
 </t>
   </si>
   <si>
@@ -1303,7 +1344,7 @@
     <t>definitional</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.definitional|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.definitional}
 </t>
   </si>
   <si>
@@ -1377,10 +1418,6 @@
   </si>
   <si>
     <t>clinicalUseIssue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationKnowledge.clinicalUseIssue from R5 for use in FHIR R4</t>
@@ -1498,7 +1535,7 @@
     <t>regulatory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.regulatory|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.regulatory}
 </t>
   </si>
   <si>
@@ -1972,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN135"/>
+  <dimension ref="A1:AN137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1991,7 +2028,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3285,43 +3322,43 @@
         <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3369,7 +3406,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3384,7 +3421,7 @@
         <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3398,12 +3435,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3412,7 +3451,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3421,7 +3460,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>159</v>
@@ -3459,13 +3498,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3483,50 +3522,50 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3535,21 +3574,23 @@
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3573,13 +3614,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3597,22 +3638,22 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3626,10 +3667,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3652,15 +3693,17 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3685,13 +3728,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3709,7 +3752,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3724,24 +3767,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3758,22 +3801,22 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3799,13 +3842,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3823,7 +3866,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3838,24 +3881,24 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3878,17 +3921,15 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3937,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3952,24 +3993,24 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3980,7 +4021,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3989,18 +4030,20 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4025,13 +4068,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -4049,13 +4092,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -4064,24 +4107,24 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4092,7 +4135,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4101,18 +4144,20 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4161,13 +4206,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4176,7 +4221,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4190,10 +4235,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4204,7 +4249,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4213,16 +4258,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4273,22 +4318,22 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4302,10 +4347,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4328,13 +4373,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4373,17 +4418,19 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4395,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -4412,14 +4459,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4428,7 +4473,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4440,17 +4485,15 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4499,22 +4542,22 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4528,14 +4571,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4548,26 +4591,22 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4603,19 +4642,17 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4630,7 +4667,7 @@
         <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4644,21 +4681,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4670,15 +4709,17 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4730,16 +4771,16 @@
         <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4756,18 +4797,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4776,22 +4817,26 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4839,10 +4884,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4851,10 +4896,10 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4868,10 +4913,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4879,10 +4924,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4894,13 +4939,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4951,13 +4996,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4980,10 +5025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4991,7 +5036,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5006,13 +5051,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5063,10 +5108,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5092,10 +5137,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5118,13 +5163,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5175,7 +5220,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5204,10 +5249,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5218,7 +5263,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5230,13 +5275,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5287,22 +5332,22 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5316,10 +5361,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5342,13 +5387,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5387,17 +5432,19 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5409,7 +5456,7 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5426,14 +5473,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5442,7 +5487,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5454,17 +5499,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5513,22 +5556,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5542,14 +5585,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5562,26 +5605,22 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5617,19 +5656,17 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5644,7 +5681,7 @@
         <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5658,12 +5695,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5672,7 +5711,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5684,15 +5723,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5741,19 +5782,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5770,42 +5811,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5853,22 +5898,22 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5882,10 +5927,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5896,7 +5941,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5908,13 +5953,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5965,13 +6010,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5994,10 +6039,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6020,13 +6065,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6077,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6089,10 +6134,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6106,14 +6151,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6132,17 +6177,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6191,7 +6234,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6203,10 +6246,10 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6220,46 +6263,42 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6307,22 +6346,22 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6336,21 +6375,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6362,15 +6401,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6419,72 +6460,74 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6533,22 +6576,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6573,7 +6616,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6648,7 +6691,7 @@
         <v>277</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>86</v>
@@ -6660,10 +6703,10 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6709,7 +6752,9 @@
         <v>286</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6772,7 +6817,7 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6786,10 +6831,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6800,7 +6845,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6812,13 +6857,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6845,13 +6890,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6869,13 +6914,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6884,24 +6929,24 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6912,7 +6957,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6924,13 +6969,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6981,13 +7026,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -7010,10 +7055,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7024,7 +7069,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7036,13 +7081,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7069,13 +7114,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7093,22 +7138,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7122,10 +7167,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7148,13 +7193,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7193,17 +7238,19 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7215,7 +7262,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7232,14 +7279,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7248,7 +7293,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7260,17 +7305,15 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7319,22 +7362,22 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7348,14 +7391,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7368,26 +7411,22 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7423,19 +7462,17 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7450,7 +7487,7 @@
         <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7464,21 +7501,23 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7490,15 +7529,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7547,19 +7588,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7576,42 +7617,46 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7659,22 +7704,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7688,10 +7733,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7714,13 +7759,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7771,7 +7816,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -7800,10 +7845,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7814,7 +7859,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7826,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7883,13 +7928,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7912,10 +7957,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7923,7 +7968,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7938,13 +7983,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7995,10 +8040,10 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>86</v>
@@ -8007,10 +8052,10 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8024,10 +8069,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8050,13 +8095,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>132</v>
+        <v>325</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8095,17 +8140,19 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8117,7 +8164,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8134,14 +8181,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8150,7 +8195,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8162,17 +8207,15 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8221,22 +8264,22 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8250,14 +8293,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8270,26 +8313,22 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8325,19 +8364,17 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8352,7 +8389,7 @@
         <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8366,12 +8403,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8380,7 +8419,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8392,15 +8431,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8449,19 +8490,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8478,42 +8519,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8561,22 +8606,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8590,10 +8635,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8604,7 +8649,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8616,13 +8661,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8673,13 +8718,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8702,10 +8747,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8728,13 +8773,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8785,7 +8830,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8797,10 +8842,10 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8814,10 +8859,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8840,13 +8885,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8885,17 +8930,19 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8907,7 +8954,7 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8924,14 +8971,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8940,7 +8985,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8952,17 +8997,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9011,22 +9054,22 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9040,14 +9083,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9060,26 +9103,22 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9115,19 +9154,17 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9142,7 +9179,7 @@
         <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9156,12 +9193,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9182,15 +9221,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9239,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9248,10 +9289,10 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9268,42 +9309,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9351,22 +9396,22 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9380,14 +9425,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9406,17 +9451,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9465,7 +9508,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>215</v>
+        <v>353</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9477,10 +9520,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9494,46 +9537,42 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9581,22 +9620,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9610,21 +9649,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9636,15 +9675,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9693,22 +9734,22 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9722,18 +9763,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9742,22 +9783,26 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9805,10 +9850,10 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9817,10 +9862,10 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9834,10 +9879,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9845,7 +9890,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>86</v>
@@ -9860,13 +9905,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9917,10 +9962,10 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>86</v>
@@ -9946,10 +9991,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9957,7 +10002,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -9972,13 +10017,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10029,10 +10074,10 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10058,10 +10103,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10084,13 +10129,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10141,7 +10186,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10153,10 +10198,10 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10170,14 +10215,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10196,17 +10241,15 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10255,7 +10298,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>215</v>
+        <v>368</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10267,10 +10310,10 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10284,46 +10327,42 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10371,22 +10410,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10400,21 +10439,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10426,15 +10465,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10483,22 +10524,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10512,14 +10553,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10532,22 +10573,26 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>367</v>
+        <v>236</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10595,7 +10640,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10607,10 +10652,10 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10624,10 +10669,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10635,10 +10680,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10650,13 +10695,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10707,13 +10752,13 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
@@ -10736,10 +10781,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10750,7 +10795,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10762,13 +10807,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>210</v>
+        <v>379</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>211</v>
+        <v>380</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10819,22 +10864,22 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10848,10 +10893,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10874,13 +10919,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10919,17 +10964,19 @@
         <v>77</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>215</v>
+        <v>381</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10941,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10958,14 +11005,12 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10974,7 +11019,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10986,17 +11031,15 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>376</v>
+        <v>214</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>377</v>
+        <v>222</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11045,22 +11088,22 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11074,14 +11117,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11094,26 +11137,22 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11149,19 +11188,17 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11176,7 +11213,7 @@
         <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11190,21 +11227,23 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11216,15 +11255,17 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>159</v>
+        <v>388</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11273,19 +11314,19 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11302,14 +11343,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11322,22 +11363,26 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11385,7 +11430,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11397,10 +11442,10 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11414,10 +11459,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11425,7 +11470,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>86</v>
@@ -11440,13 +11485,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11497,10 +11542,10 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>86</v>
@@ -11526,10 +11571,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11540,7 +11585,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11552,13 +11597,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>210</v>
+        <v>396</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>211</v>
+        <v>397</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11609,22 +11654,22 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11638,10 +11683,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11652,7 +11697,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11664,13 +11709,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11709,29 +11754,31 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
@@ -11748,14 +11795,12 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11764,7 +11809,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11776,17 +11821,15 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11835,22 +11878,22 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11864,14 +11907,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11884,26 +11927,22 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11939,19 +11978,17 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11966,7 +12003,7 @@
         <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11980,12 +12017,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11994,7 +12033,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -12006,15 +12045,17 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>159</v>
+        <v>405</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -12039,13 +12080,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12063,19 +12104,19 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -12092,42 +12133,46 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>403</v>
+        <v>236</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12175,22 +12220,22 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>402</v>
+        <v>238</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12204,10 +12249,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12218,7 +12263,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12230,13 +12275,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12263,13 +12308,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12287,13 +12332,13 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
@@ -12316,10 +12361,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12342,13 +12387,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12399,7 +12444,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12411,10 +12456,10 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12428,10 +12473,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12454,13 +12499,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>133</v>
+        <v>419</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12499,17 +12544,19 @@
         <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>215</v>
+        <v>417</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12521,7 +12568,7 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
@@ -12538,14 +12585,12 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12566,17 +12611,15 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>412</v>
+        <v>214</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>413</v>
+        <v>222</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12625,22 +12668,22 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12654,14 +12697,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12674,26 +12717,22 @@
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12729,19 +12768,17 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12756,7 +12793,7 @@
         <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12770,12 +12807,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12796,15 +12835,17 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>159</v>
+        <v>424</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -12829,13 +12870,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -12853,19 +12894,19 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
@@ -12882,44 +12923,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>424</v>
+        <v>236</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>425</v>
+        <v>237</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12967,22 +13010,22 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -12996,10 +13039,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13010,7 +13053,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
@@ -13022,13 +13065,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>428</v>
+        <v>171</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13055,13 +13098,13 @@
         <v>77</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -13079,13 +13122,13 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
@@ -13108,10 +13151,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13134,15 +13177,17 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>202</v>
+        <v>435</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13191,7 +13236,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13203,10 +13248,10 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13220,10 +13265,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13246,13 +13291,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>132</v>
+        <v>441</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13291,19 +13336,19 @@
         <v>77</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>215</v>
+        <v>439</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13315,7 +13360,7 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
@@ -13332,14 +13377,12 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13360,17 +13403,15 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>436</v>
+        <v>214</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>437</v>
+        <v>222</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13419,22 +13460,22 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13448,10 +13489,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13462,7 +13503,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13471,20 +13512,18 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>441</v>
+        <v>132</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13521,34 +13560,34 @@
         <v>77</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>444</v>
+        <v>227</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13565,9 +13604,11 @@
         <v>446</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13585,19 +13626,19 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13623,13 +13664,13 @@
         <v>77</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>77</v>
@@ -13647,22 +13688,22 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>453</v>
+        <v>227</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13676,10 +13717,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13702,16 +13743,16 @@
         <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>455</v>
+        <v>214</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13761,7 +13802,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -13770,13 +13811,13 @@
         <v>86</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>460</v>
+        <v>129</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13790,10 +13831,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13816,16 +13857,16 @@
         <v>87</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13851,13 +13892,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -13875,7 +13916,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -13904,10 +13945,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13918,7 +13959,7 @@
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -13927,10 +13968,10 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>206</v>
+        <v>466</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>467</v>
@@ -13938,7 +13979,9 @@
       <c r="M106" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13987,13 +14030,13 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>77</v>
@@ -14002,7 +14045,7 @@
         <v>98</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14016,10 +14059,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14039,18 +14082,20 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>210</v>
+        <v>473</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -14099,7 +14144,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14111,10 +14156,10 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14128,10 +14173,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14154,13 +14199,13 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>133</v>
+        <v>479</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14199,17 +14244,19 @@
         <v>77</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC108" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>215</v>
+        <v>477</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14221,7 +14268,7 @@
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>77</v>
@@ -14238,14 +14285,12 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14254,7 +14299,7 @@
         <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -14266,17 +14311,15 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>473</v>
+        <v>214</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>474</v>
+        <v>222</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -14325,22 +14368,22 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14354,14 +14397,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14374,26 +14417,22 @@
         <v>77</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>77</v>
       </c>
@@ -14429,19 +14468,17 @@
         <v>77</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14456,7 +14493,7 @@
         <v>137</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14470,21 +14507,23 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>77</v>
@@ -14496,15 +14535,17 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>179</v>
+        <v>484</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -14553,19 +14594,19 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>477</v>
+        <v>227</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>77</v>
@@ -14582,14 +14623,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14602,22 +14643,26 @@
         <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>481</v>
+        <v>236</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
       </c>
@@ -14665,7 +14710,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14677,10 +14722,10 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -14694,10 +14739,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14705,7 +14750,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>86</v>
@@ -14720,13 +14765,13 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>210</v>
+        <v>489</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>211</v>
+        <v>490</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14777,10 +14822,10 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>212</v>
+        <v>488</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>86</v>
@@ -14789,10 +14834,10 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -14806,14 +14851,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14832,17 +14877,15 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>262</v>
+        <v>492</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -14891,7 +14934,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>215</v>
+        <v>491</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -14903,10 +14946,10 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -14920,46 +14963,42 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15007,22 +15046,22 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15036,21 +15075,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>77</v>
@@ -15062,15 +15101,17 @@
         <v>77</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>487</v>
+        <v>274</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -15119,22 +15160,22 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15148,42 +15189,46 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>490</v>
+        <v>236</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
       </c>
@@ -15231,22 +15276,22 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>489</v>
+        <v>238</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15260,10 +15305,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15271,10 +15316,10 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>77</v>
@@ -15286,13 +15331,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15343,13 +15388,13 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>77</v>
@@ -15372,10 +15417,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15383,7 +15428,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>86</v>
@@ -15398,13 +15443,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>210</v>
+        <v>501</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>211</v>
+        <v>502</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15455,10 +15500,10 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>86</v>
@@ -15467,10 +15512,10 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -15484,14 +15529,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -15510,17 +15555,15 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>262</v>
+        <v>504</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15569,7 +15612,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>215</v>
+        <v>503</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15581,10 +15624,10 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -15598,46 +15641,42 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>77</v>
       </c>
@@ -15685,22 +15724,22 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -15714,21 +15753,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>77</v>
@@ -15740,15 +15779,17 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>499</v>
+        <v>274</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -15797,22 +15838,22 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>498</v>
+        <v>227</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
@@ -15826,42 +15867,46 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>502</v>
+        <v>236</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
       </c>
@@ -15909,22 +15954,22 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>501</v>
+        <v>238</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -15938,10 +15983,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15949,7 +15994,7 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>86</v>
@@ -15964,13 +16009,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>211</v>
+        <v>511</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16021,10 +16066,10 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>212</v>
+        <v>509</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>86</v>
@@ -16033,10 +16078,10 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
@@ -16050,21 +16095,21 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>77</v>
@@ -16076,17 +16121,15 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>262</v>
+        <v>513</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -16135,22 +16178,22 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>215</v>
+        <v>512</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16164,46 +16207,42 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>77</v>
       </c>
@@ -16251,22 +16290,22 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -16280,21 +16319,21 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>77</v>
@@ -16306,15 +16345,17 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>508</v>
+        <v>274</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>77</v>
@@ -16363,22 +16404,22 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>507</v>
+        <v>227</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -16392,42 +16433,46 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>512</v>
+        <v>236</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
       </c>
@@ -16475,22 +16520,22 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
@@ -16504,10 +16549,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16515,10 +16560,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>77</v>
@@ -16530,13 +16575,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -16587,13 +16632,13 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>77</v>
@@ -16616,10 +16661,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16642,13 +16687,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>202</v>
+        <v>522</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>210</v>
+        <v>523</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16699,7 +16744,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>212</v>
+        <v>521</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -16711,10 +16756,10 @@
         <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>77</v>
@@ -16728,14 +16773,14 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -16754,17 +16799,15 @@
         <v>77</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>262</v>
+        <v>526</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -16813,7 +16856,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>215</v>
+        <v>525</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -16825,10 +16868,10 @@
         <v>77</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -16842,46 +16885,42 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>77</v>
       </c>
@@ -16929,22 +16968,22 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>77</v>
@@ -16958,14 +16997,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -16984,15 +17023,17 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>521</v>
+        <v>274</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -17041,7 +17082,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>520</v>
+        <v>227</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -17053,10 +17094,10 @@
         <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17070,14 +17111,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17090,22 +17131,26 @@
         <v>77</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>524</v>
+        <v>236</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17153,7 +17198,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>523</v>
+        <v>238</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -17165,10 +17210,10 @@
         <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17182,10 +17227,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17196,7 +17241,7 @@
         <v>78</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>77</v>
@@ -17208,13 +17253,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>511</v>
+        <v>208</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17265,13 +17310,13 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>77</v>
@@ -17289,6 +17334,230 @@
         <v>77</v>
       </c>
       <c r="AN135" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN137" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationKnowledge.xlsx
+++ b/StructureDefinition-profile-MedicationKnowledge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4911" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8722788-06:00</t>
+    <t>2026-02-21T13:36:54.2808673-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationKnowledge</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationKnowledge|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>intendedJurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.intendedJurisdiction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.intendedJurisdiction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>storageGuideline</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.storageGuideline|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -483,47 +483,6 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.storageGuideline` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationKnowledge.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationKnowledge.author` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-identifier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationKnowledge.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
-Element `MedicationKnowledge.identifier` has a context of MedicationKnowledge based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.modifierExtension</t>
@@ -731,26 +690,13 @@
     <t>MedicationKnowledge.relatedMedicationKnowledge.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.relatedMedicationKnowledge.extension:relatedMedicationKnowledge</t>
-  </si>
-  <si>
-    <t>relatedMedicationKnowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.relatedMedicationKnowledge}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationKnowledge.relatedMedicationKnowledge from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Associated or related medications. For example, if the medication is a branded product (e.g. Crestor), this is the Therapeutic Moeity (e.g. Rosuvastatin) or if this is a generic medication (e.g. Rosuvastatin), this would link to a branded product (e.g. Crestor.</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.relatedMedicationKnowledge` has is mapped to FHIR R4 element `MedicationKnowledge.relatedMedicationKnowledge`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationKnowledge.relatedMedicationKnowledge.modifierExtension</t>
@@ -829,22 +775,6 @@
     <t>MedicationKnowledge.monograph.extension</t>
   </si>
   <si>
-    <t>MedicationKnowledge.monograph.extension:monograph</t>
-  </si>
-  <si>
-    <t>monograph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.monograph}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationKnowledge.monograph from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.monograph` has is mapped to FHIR R4 element `MedicationKnowledge.monograph`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>MedicationKnowledge.monograph.modifierExtension</t>
   </si>
   <si>
@@ -879,10 +809,23 @@
     <t>MedicationKnowledge.ingredient.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>MedicationKnowledge.ingredient.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.definitional.ingredient.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationKnowledge.definitional.ingredient.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.definitional.ingredient.type` has a context of MedicationKnowledge.ingredient based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.ingredient.modifierExtension</t>
@@ -917,9 +860,6 @@
     <t>Active ingredient indicator</t>
   </si>
   <si>
-    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
-  </si>
-  <si>
     <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active).  False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
   </si>
@@ -946,6 +886,68 @@
     <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
+    <t>MedicationKnowledge.ingredient.strength.id</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.ingredient.strength.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.ingredient.strength.extension:strength</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.definitional.ingredient.strength|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationKnowledge.definitional.ingredient.strength[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet but can also be expressed a quantity when the denominator is assumed to be 1 tablet.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.definitional.ingredient.strength[x]` is mapped to FHIR R4 element `MedicationKnowledge.ingredient.strength` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.ingredient.strength.numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.ingredient.strength.denominator</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
     <t>MedicationKnowledge.preparationInstruction</t>
   </si>
   <si>
@@ -989,21 +991,24 @@
     <t>MedicationKnowledge.cost.extension</t>
   </si>
   <si>
-    <t>MedicationKnowledge.cost.extension:cost</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.cost}
+    <t>MedicationKnowledge.cost.extension:effectiveDate</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.cost.effectiveDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationKnowledge.cost from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.cost` has is mapped to FHIR R4 element `MedicationKnowledge.cost`, but has no comparisons.
-Note available implied context: `MedicationKnowledge.packaging.cost` because `MedicationKnowledge.packaging.cost` is defined as a content reference to `MedicationKnowledge.cost`.</t>
+    <t>Cross-version extension for MedicationKnowledge.cost.effectiveDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date range for which the cost information of the medication is effective.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.cost.effectiveDate` has a context of MedicationKnowledge.cost based on following the parent source element upwards and mapping to `MedicationKnowledge`.
+Note available implied context: `MedicationKnowledge.packaging.cost` because `MedicationKnowledge.packaging.cost` is defined via a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.cost.modifierExtension</t>
@@ -1037,6 +1042,78 @@
     <t>The price of the medication</t>
   </si>
   <si>
+    <t>MedicationKnowledge.cost.cost.id</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.cost.cost.extension</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.cost.cost.extension:cost</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.cost.cost|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationKnowledge.cost.cost[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The price or representation of the cost (for example, Band A, Band B or $, $$) of the medication.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.cost.cost[x]` is mapped to FHIR R4 element `MedicationKnowledge.cost.cost` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `MedicationKnowledge.packaging.cost.cost` because `MedicationKnowledge.packaging.cost` is defined via a content reference to `MedicationKnowledge.cost`.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.cost.cost.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision).</t>
+  </si>
+  <si>
+    <t>Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>The amount of the currency. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>Money.value</t>
+  </si>
+  <si>
+    <t>MO.Value</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.cost.cost.currency</t>
+  </si>
+  <si>
+    <t>ISO 4217 Currency Code</t>
+  </si>
+  <si>
+    <t>ISO 4217 Currency Code.</t>
+  </si>
+  <si>
+    <t>A code indicating the currency, taken from ISO 4217.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/currencies|4.0.1</t>
+  </si>
+  <si>
+    <t>Money.currency</t>
+  </si>
+  <si>
+    <t>MO.Currency</t>
+  </si>
+  <si>
     <t>MedicationKnowledge.monitoringProgram</t>
   </si>
   <si>
@@ -1052,75 +1129,78 @@
     <t>MedicationKnowledge.monitoringProgram.extension</t>
   </si>
   <si>
-    <t>MedicationKnowledge.monitoringProgram.extension:monitoringProgram</t>
-  </si>
-  <si>
-    <t>monitoringProgram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.monitoringProgram}
+    <t>MedicationKnowledge.monitoringProgram.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.monitoringProgram.type</t>
+  </si>
+  <si>
+    <t>Type of program under which the medication is monitored</t>
+  </si>
+  <si>
+    <t>Type of program under which the medication is monitored.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.monitoringProgram.name</t>
+  </si>
+  <si>
+    <t>Name of the reviewing program</t>
+  </si>
+  <si>
+    <t>Name of the reviewing program.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.administrationGuidelines</t>
+  </si>
+  <si>
+    <t>Guidelines for administration of the medication</t>
+  </si>
+  <si>
+    <t>Guidelines for the administration of the medication.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.administrationGuidelines.id</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.administrationGuidelines.extension</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.administrationGuidelines.extension:treatmentIntent</t>
+  </si>
+  <si>
+    <t>treatmentIntent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.indicationGuideline.dosingGuideline.treatmentIntent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationKnowledge.monitoringProgram from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.monitoringProgram` has is mapped to FHIR R4 element `MedicationKnowledge.monitoringProgram`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.monitoringProgram.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.monitoringProgram.type</t>
-  </si>
-  <si>
-    <t>Type of program under which the medication is monitored</t>
-  </si>
-  <si>
-    <t>Type of program under which the medication is monitored.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.monitoringProgram.name</t>
-  </si>
-  <si>
-    <t>Name of the reviewing program</t>
-  </si>
-  <si>
-    <t>Name of the reviewing program.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.administrationGuidelines</t>
-  </si>
-  <si>
-    <t>Guidelines for administration of the medication</t>
-  </si>
-  <si>
-    <t>Guidelines for the administration of the medication.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.administrationGuidelines.id</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.administrationGuidelines.extension</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.administrationGuidelines.extension:indicationGuideline</t>
-  </si>
-  <si>
-    <t>indicationGuideline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.indicationGuideline}
+    <t>Cross-version extension for MedicationKnowledge.indicationGuideline.dosingGuideline.treatmentIntent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The overall intention of the treatment, for example, prophylactic, supporative, curative, etc.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.indicationGuideline.dosingGuideline.treatmentIntent` has a context of MedicationKnowledge.administrationGuidelines based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+  </si>
+  <si>
+    <t>MedicationKnowledge.administrationGuidelines.extension:administrationTreatment</t>
+  </si>
+  <si>
+    <t>administrationTreatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.indicationGuideline.dosingGuideline.administrationTreatment|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationKnowledge.indicationGuideline from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Guidelines or protocols that are applicable for the administration of the medication based on indication.</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.indicationGuideline` has is mapped to FHIR R4 element `MedicationKnowledge.administrationGuidelines`, but has no comparisons.</t>
+    <t>Cross-version extension for MedicationKnowledge.indicationGuideline.dosingGuideline.administrationTreatment from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The type of the treatment that the guideline applies to, for example, long term therapy, first line treatment, etc.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.indicationGuideline.dosingGuideline.administrationTreatment` has a context of MedicationKnowledge.administrationGuidelines based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.administrationGuidelines.modifierExtension</t>
@@ -1188,6 +1268,22 @@
     <t>MedicationKnowledge.administrationGuidelines.patientCharacteristics.extension</t>
   </si>
   <si>
+    <t>MedicationKnowledge.administrationGuidelines.patientCharacteristics.extension:type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The categorization of the specific characteristic that is relevant to the administration guideline (e.g. height, weight, gender).</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic.type` has a context of MedicationKnowledge.administrationGuidelines.patientCharacteristics based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+  </si>
+  <si>
     <t>MedicationKnowledge.administrationGuidelines.patientCharacteristics.modifierExtension</t>
   </si>
   <si>
@@ -1228,20 +1324,23 @@
     <t>MedicationKnowledge.medicineClassification.extension</t>
   </si>
   <si>
-    <t>MedicationKnowledge.medicineClassification.extension:medicineClassification</t>
-  </si>
-  <si>
-    <t>medicineClassification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.medicineClassification}
+    <t>MedicationKnowledge.medicineClassification.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.medicineClassification.source|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationKnowledge.medicineClassification from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.medicineClassification` has is mapped to FHIR R4 element `MedicationKnowledge.medicineClassification`, but has no comparisons.</t>
+    <t>Cross-version extension for MedicationKnowledge.medicineClassification.source[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Either a textual source of the classification or a reference to an online source.</t>
+  </si>
+  <si>
+    <t>Element `MedicationKnowledge.medicineClassification.source[x]` has a context of MedicationKnowledge.medicineClassification based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.medicineClassification.modifierExtension</t>
@@ -1286,14 +1385,14 @@
     <t>packaging</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.packaging}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.packaging|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for MedicationKnowledge.packaging from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.packaging` has is mapped to FHIR R4 element `MedicationKnowledge.packaging`, but has no comparisons.</t>
+    <t>Element `MedicationKnowledge.packaging` is mapped to FHIR R4 element `MedicationKnowledge.packaging` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.packaging.modifierExtension</t>
@@ -1338,24 +1437,25 @@
     <t>MedicationKnowledge.drugCharacteristic.extension</t>
   </si>
   <si>
-    <t>MedicationKnowledge.drugCharacteristic.extension:definitional</t>
-  </si>
-  <si>
-    <t>definitional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.definitional}
+    <t>MedicationKnowledge.drugCharacteristic.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.definitional.drugCharacteristic.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationKnowledge.definitional from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Along with the link to a Medicinal Product Definition resource, this information provides common definitional elements that are needed to understand the specific medication that is being described.</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.definitional` has is mapped to FHIR R4 element `MedicationKnowledge`, but has no comparisons.
-Element `MedicationKnowledge.definitional` has is mapped to FHIR R4 element `MedicationKnowledge.drugCharacteristic`, but has no comparisons.</t>
+    <t>Cross-version extension for MedicationKnowledge.definitional.drugCharacteristic.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Description of the characteristic.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `MedicationKnowledge.drugCharacteristic.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationKnowledge.drugCharacteristic`.
+Element `MedicationKnowledge.definitional.drugCharacteristic.value[x]` is mapped to FHIR R4 element `MedicationKnowledge.drugCharacteristic.value[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note that the target element context `MedicationKnowledge.drugCharacteristic.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationKnowledge.drugCharacteristic`.</t>
   </si>
   <si>
     <t>MedicationKnowledge.drugCharacteristic.modifierExtension</t>
@@ -1386,9 +1486,6 @@
     <t>Description of the characteristic</t>
   </si>
   <si>
-    <t>Description of the characteristic.</t>
-  </si>
-  <si>
     <t>The description should be provided as a CodeableConcept, SimpleQuantity or an image.  The description can be a string only when these others are not available.</t>
   </si>
   <si>
@@ -1405,115 +1502,6 @@
     <t>Potential clinical issue with or between medication(s) (for example, drug-drug interaction, drug-disease contraindication, drug-allergy interaction, etc.).</t>
   </si>
   <si>
-    <t>MedicationKnowledge.contraindication.id</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.contraindication.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.contraindication.extension:clinicalUseIssue</t>
-  </si>
-  <si>
-    <t>clinicalUseIssue</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationKnowledge.clinicalUseIssue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ClinicalUseDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationKnowledge.clinicalUseIssue` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationKnowledge.clinicalUseIssue` has is mapped to FHIR R4 element `MedicationKnowledge.contraindication`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.contraindication.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.contraindication.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.contraindication.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.contraindication.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationKnowledge.regulatory</t>
   </si>
   <si>
@@ -1527,22 +1515,6 @@
   </si>
   <si>
     <t>MedicationKnowledge.regulatory.extension</t>
-  </si>
-  <si>
-    <t>MedicationKnowledge.regulatory.extension:regulatory</t>
-  </si>
-  <si>
-    <t>regulatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationKnowledge.regulatory}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationKnowledge.regulatory from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationKnowledge.regulatory` has is mapped to FHIR R4 element `MedicationKnowledge.regulatory`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationKnowledge.regulatory.modifierExtension</t>
@@ -2018,9 +1990,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="72.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.69921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.1796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2028,7 +2000,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3322,43 +3294,43 @@
         <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3406,7 +3378,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3421,7 +3393,7 @@
         <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3435,14 +3407,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3451,7 +3421,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3460,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>159</v>
@@ -3498,13 +3468,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3522,50 +3492,50 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3574,23 +3544,21 @@
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3614,13 +3582,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3638,22 +3606,22 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3667,10 +3635,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3693,17 +3661,15 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3728,13 +3694,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3752,7 +3718,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3767,24 +3733,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3801,22 +3767,22 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3842,31 +3808,31 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3881,24 +3847,24 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3921,15 +3887,17 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3978,7 +3946,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3993,24 +3961,24 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4021,7 +3989,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -4030,20 +3998,18 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4068,13 +4034,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -4092,13 +4058,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -4107,24 +4073,24 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4135,7 +4101,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4144,20 +4110,18 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4206,13 +4170,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4221,7 +4185,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4235,10 +4199,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4249,7 +4213,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4258,16 +4222,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4318,22 +4282,22 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4347,14 +4311,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4373,15 +4337,17 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4442,10 +4408,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4459,42 +4425,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4542,22 +4512,22 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4571,10 +4541,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4582,10 +4552,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4597,13 +4567,13 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4642,29 +4612,31 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4681,20 +4653,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4709,17 +4679,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4768,19 +4736,19 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4797,14 +4765,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4817,26 +4785,22 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4884,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4896,10 +4860,10 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4913,10 +4877,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4924,10 +4888,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4939,13 +4903,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4996,13 +4960,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -5025,10 +4989,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5036,7 +5000,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5051,13 +5015,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5108,10 +5072,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5137,10 +5101,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5151,7 +5115,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5163,13 +5127,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5220,22 +5184,22 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5249,14 +5213,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5275,15 +5239,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5332,7 +5298,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5344,10 +5310,10 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5361,14 +5327,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5381,22 +5347,26 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5444,7 +5414,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5456,10 +5426,10 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5473,10 +5443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5499,13 +5469,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5556,7 +5526,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5568,10 +5538,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5585,10 +5555,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5599,7 +5569,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5611,13 +5581,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5656,29 +5626,31 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5695,14 +5667,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5723,17 +5693,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5782,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5791,10 +5759,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5811,46 +5779,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5898,22 +5862,22 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5927,10 +5891,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5941,7 +5905,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5953,13 +5917,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5998,31 +5962,29 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -6039,12 +6001,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6065,15 +6029,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6122,19 +6088,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6151,14 +6117,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6171,22 +6137,26 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6234,7 +6204,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6246,10 +6216,10 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6263,10 +6233,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6274,7 +6244,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -6289,13 +6259,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6346,10 +6316,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -6358,38 +6328,38 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6401,18 +6371,18 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6460,22 +6430,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6489,46 +6459,42 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6576,31 +6542,31 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -6616,7 +6582,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6631,13 +6597,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6688,10 +6654,10 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>86</v>
@@ -6700,27 +6666,27 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6731,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6743,18 +6709,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6790,34 +6754,34 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6831,12 +6795,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6857,15 +6823,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6914,39 +6882,39 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6966,16 +6934,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7026,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7041,7 +7009,7 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7055,10 +7023,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7069,7 +7037,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7078,16 +7046,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7114,13 +7082,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7138,13 +7106,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7153,7 +7121,7 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7167,10 +7135,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7181,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7193,13 +7161,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7250,13 +7218,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7279,10 +7247,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7293,7 +7261,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7305,13 +7273,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7338,13 +7306,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7362,22 +7330,22 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7391,10 +7359,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7417,13 +7385,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7462,17 +7430,19 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7484,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7504,11 +7474,9 @@
         <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7517,7 +7485,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7529,17 +7497,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>311</v>
+        <v>202</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7588,22 +7554,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7617,14 +7583,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7637,26 +7603,22 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7692,19 +7654,17 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7719,7 +7679,7 @@
         <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7733,21 +7693,23 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7759,15 +7721,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7816,19 +7780,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7845,42 +7809,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7928,22 +7896,22 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7957,10 +7925,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7983,13 +7951,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8040,7 +8008,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -8069,10 +8037,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8083,7 +8051,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -8095,13 +8063,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8152,13 +8120,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8181,10 +8149,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8192,7 +8160,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
@@ -8207,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8264,10 +8232,10 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>86</v>
@@ -8276,10 +8244,10 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8293,10 +8261,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8307,7 +8275,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8319,13 +8287,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8364,32 +8332,34 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8403,20 +8373,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8431,17 +8399,15 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8478,19 +8444,19 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8499,7 +8465,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>137</v>
@@ -8519,46 +8485,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D58" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8606,7 +8572,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8621,7 +8587,7 @@
         <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8658,19 +8624,23 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8718,7 +8688,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8742,15 +8712,15 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8770,19 +8740,21 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8806,13 +8778,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8830,7 +8802,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8854,15 +8826,15 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8885,13 +8857,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8942,7 +8914,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8971,10 +8943,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8997,13 +8969,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9054,7 +9026,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9069,7 +9041,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9083,14 +9055,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9112,12 +9084,14 @@
         <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9154,17 +9128,19 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9179,7 +9155,7 @@
         <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9193,16 +9169,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9215,24 +9189,26 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9280,7 +9256,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9289,13 +9265,13 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9309,46 +9285,42 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9396,22 +9368,22 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9425,10 +9397,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9439,7 +9411,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9451,13 +9423,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9508,13 +9480,13 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
@@ -9537,10 +9509,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9551,7 +9523,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9563,13 +9535,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>222</v>
+        <v>363</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>223</v>
+        <v>364</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9620,22 +9592,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9649,21 +9621,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9675,17 +9647,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9734,22 +9704,22 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9763,14 +9733,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9783,26 +9753,22 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9838,19 +9804,17 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9865,7 +9829,7 @@
         <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9879,18 +9843,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>86</v>
@@ -9905,15 +9871,17 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9962,19 +9930,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9991,22 +9959,24 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10017,15 +9987,17 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10074,19 +10046,19 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>362</v>
+        <v>217</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -10103,42 +10075,46 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10186,22 +10162,22 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>364</v>
+        <v>222</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10215,10 +10191,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10241,13 +10217,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10298,7 +10274,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10327,10 +10303,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10353,13 +10329,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10410,7 +10386,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10425,7 +10401,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10439,14 +10415,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10468,13 +10444,13 @@
         <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10524,7 +10500,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10539,7 +10515,7 @@
         <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10553,14 +10529,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10582,16 +10558,16 @@
         <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10640,7 +10616,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10669,10 +10645,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10695,13 +10671,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>375</v>
+        <v>159</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10752,7 +10728,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -10781,10 +10757,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10792,7 +10768,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -10807,13 +10783,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10864,10 +10840,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -10893,10 +10869,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10907,7 +10883,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10919,13 +10895,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>218</v>
+        <v>392</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10976,13 +10952,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -11005,10 +10981,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11019,7 +10995,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11031,13 +11007,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>223</v>
+        <v>397</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11088,22 +11064,22 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11117,10 +11093,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11131,7 +11107,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11143,13 +11119,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11188,32 +11164,34 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11227,20 +11205,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11255,17 +11231,15 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>388</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11302,19 +11276,17 @@
         <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11323,7 +11295,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>137</v>
@@ -11343,46 +11315,46 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D83" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>237</v>
+        <v>403</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11430,7 +11402,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11439,13 +11411,13 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11459,42 +11431,46 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11542,22 +11518,22 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11571,10 +11547,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11582,10 +11558,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11597,13 +11573,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11654,13 +11630,13 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
@@ -11683,10 +11659,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11697,7 +11673,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11709,13 +11685,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11766,13 +11742,13 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
@@ -11795,10 +11771,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11809,7 +11785,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11821,13 +11797,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>223</v>
+        <v>415</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11878,22 +11854,22 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11907,10 +11883,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11921,7 +11897,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11933,13 +11909,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11978,32 +11954,34 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12017,14 +11995,12 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12045,17 +12021,15 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -12092,19 +12066,17 @@
         <v>77</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12113,7 +12085,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>137</v>
@@ -12133,46 +12105,46 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>236</v>
+        <v>421</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>237</v>
+        <v>422</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12220,7 +12192,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12229,13 +12201,13 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12249,42 +12221,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12308,13 +12284,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12332,22 +12308,22 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12361,10 +12337,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12372,7 +12348,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>86</v>
@@ -12387,13 +12363,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12444,10 +12420,10 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>86</v>
@@ -12473,10 +12449,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12499,13 +12475,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12556,7 +12532,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12585,10 +12561,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12611,13 +12587,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>222</v>
+        <v>432</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>223</v>
+        <v>433</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12668,7 +12644,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>224</v>
+        <v>431</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12680,10 +12656,10 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12697,10 +12673,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12711,7 +12687,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12723,13 +12699,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12768,32 +12744,34 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC95" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12807,14 +12785,12 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12823,7 +12799,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -12835,17 +12811,15 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -12882,19 +12856,17 @@
         <v>77</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC96" s="2"/>
       <c r="AD96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12903,7 +12875,7 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>137</v>
@@ -12923,14 +12895,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="D97" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12943,26 +12917,24 @@
         <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>237</v>
+        <v>433</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13010,7 +12982,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13019,13 +12991,13 @@
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13039,42 +13011,46 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13098,13 +13074,13 @@
         <v>77</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>77</v>
@@ -13122,22 +13098,22 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13151,10 +13127,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13177,17 +13153,15 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>435</v>
+        <v>159</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -13212,13 +13186,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13236,7 +13210,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13265,10 +13239,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13279,7 +13253,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13291,13 +13265,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>440</v>
+        <v>196</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13348,13 +13322,13 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
@@ -13377,10 +13351,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13391,7 +13365,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -13403,13 +13377,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>222</v>
+        <v>451</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>223</v>
+        <v>452</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13460,22 +13434,22 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13489,10 +13463,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13503,7 +13477,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13515,13 +13489,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13560,34 +13534,34 @@
         <v>77</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13601,14 +13575,12 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13617,7 +13589,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -13629,17 +13601,15 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>448</v>
+        <v>132</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13676,19 +13646,17 @@
         <v>77</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13717,12 +13685,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>77</v>
       </c>
@@ -13740,19 +13710,19 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13802,22 +13772,22 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>455</v>
+        <v>217</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13831,44 +13801,46 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>458</v>
+        <v>220</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>459</v>
+        <v>221</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
       </c>
@@ -13892,13 +13864,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -13916,19 +13888,19 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>129</v>
@@ -13945,10 +13917,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13968,20 +13940,18 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -14006,13 +13976,13 @@
         <v>77</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>77</v>
@@ -14030,7 +14000,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14045,7 +14015,7 @@
         <v>98</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14059,10 +14029,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14082,19 +14052,19 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>214</v>
+        <v>468</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14144,7 +14114,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14159,7 +14129,7 @@
         <v>98</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14173,10 +14143,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14199,13 +14169,13 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>218</v>
+        <v>472</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14256,7 +14226,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14285,10 +14255,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14299,7 +14269,7 @@
         <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -14311,13 +14281,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>223</v>
+        <v>477</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14368,22 +14338,22 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>224</v>
+        <v>475</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14397,10 +14367,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14411,7 +14381,7 @@
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>77</v>
@@ -14423,13 +14393,13 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14468,32 +14438,34 @@
         <v>77</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC110" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14507,16 +14479,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14535,16 +14505,16 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>484</v>
+        <v>131</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>479</v>
+        <v>216</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14594,7 +14564,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14603,13 +14573,13 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14623,14 +14593,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14652,16 +14622,16 @@
         <v>131</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
@@ -14710,7 +14680,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14739,10 +14709,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14765,13 +14735,13 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14822,7 +14792,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -14851,10 +14821,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14877,13 +14847,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14934,7 +14904,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -14963,10 +14933,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14989,13 +14959,13 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15046,7 +15016,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15061,7 +15031,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15075,14 +15045,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15104,13 +15074,13 @@
         <v>131</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15160,7 +15130,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15175,7 +15145,7 @@
         <v>137</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15189,14 +15159,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15218,16 +15188,16 @@
         <v>131</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -15276,7 +15246,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15305,10 +15275,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15331,13 +15301,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15388,7 +15358,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -15417,10 +15387,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15443,13 +15413,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15500,7 +15470,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -15529,10 +15499,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15555,13 +15525,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15612,7 +15582,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15641,10 +15611,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15667,13 +15637,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15724,7 +15694,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -15739,7 +15709,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -15753,14 +15723,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -15782,13 +15752,13 @@
         <v>131</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15838,7 +15808,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -15853,7 +15823,7 @@
         <v>137</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
@@ -15867,14 +15837,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -15896,16 +15866,16 @@
         <v>131</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15954,7 +15924,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -15983,10 +15953,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16009,13 +15979,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16066,7 +16036,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>86</v>
@@ -16095,10 +16065,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16121,13 +16091,13 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16178,7 +16148,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16207,10 +16177,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16233,13 +16203,13 @@
         <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16290,7 +16260,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -16305,7 +16275,7 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -16319,14 +16289,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -16348,13 +16318,13 @@
         <v>131</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -16404,7 +16374,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -16419,7 +16389,7 @@
         <v>137</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -16433,14 +16403,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16462,16 +16432,16 @@
         <v>131</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -16520,7 +16490,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -16549,10 +16519,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16575,13 +16545,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -16632,7 +16602,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>86</v>
@@ -16661,10 +16631,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16687,13 +16657,13 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16744,7 +16714,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -16773,10 +16743,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16799,13 +16769,13 @@
         <v>77</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16856,7 +16826,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -16885,10 +16855,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16911,13 +16881,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16968,7 +16938,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -16983,7 +16953,7 @@
         <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>77</v>
@@ -16997,14 +16967,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17026,13 +16996,13 @@
         <v>131</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -17082,7 +17052,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -17097,7 +17067,7 @@
         <v>137</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17111,14 +17081,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17140,16 +17110,16 @@
         <v>131</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>77</v>
@@ -17198,7 +17168,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -17227,10 +17197,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17253,13 +17223,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17310,7 +17280,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -17339,10 +17309,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17365,13 +17335,13 @@
         <v>77</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17422,7 +17392,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -17451,10 +17421,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17477,13 +17447,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17534,7 +17504,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
